--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3554311.137298346</v>
+        <v>3629840.806963151</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>271.8569209441584</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>61.63452494711067</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>122.2073444116543</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>93.48258442473121</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>93.48944721115208</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>394.2018941786167</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>277.4649663949415</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.61001934678981</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>13.74040435005339</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527407</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>29.18937547121088</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>52.06419993906709</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1771,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>110.7287735479535</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>212.1324844424584</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1897,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.1129136102421</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>21.41202592065167</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>119.4042217342639</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>84.81021120445899</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>128.7668541133056</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2713,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>115.216550257373</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>108.3380852219931</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.1796758467</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>80.04606869856572</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>16.26469599829858</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>6.32203217822591</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>155.4193290987739</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>206.806426921486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>20.36041793607786</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3955,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>50.95466505913526</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>52.2794131805957</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.203741822952</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1689.203741822952</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.938043216202</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="E2" t="n">
-        <v>945.1497906179575</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>534.16388582835</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>116.2000777265368</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>116.2000777265368</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.803581887074</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,10 +4412,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>456.5405636086444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>456.5405636086444</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>456.5405636086444</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2048.575150942547</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="C5" t="n">
-        <v>2048.575150942547</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>1690.309452335796</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1304.521199737552</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>893.5352949479445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>475.5714868461314</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>148.3767668821342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>2048.575150942547</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.575150942547</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="6">
@@ -4659,7 +4661,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1282.700798147047</v>
       </c>
       <c r="C8" t="n">
-        <v>863.1126181035243</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>863.1126181035243</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>863.1126181035243</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>452.1267133139167</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2022.069293481283</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1669.300638211168</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1669.300638211168</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1669.300638211168</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C10" t="n">
-        <v>546.4805193761945</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D10" t="n">
-        <v>396.3638799638587</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>396.3638799638587</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>249.4739324659484</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488085</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488085</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488085</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.09316900344</v>
@@ -5027,10 +5029,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5051,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5072,16 +5074,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.2349604684848</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684848</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1446.32616960935</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V13" t="n">
-        <v>1191.641681403463</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W13" t="n">
-        <v>902.2245113665022</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="X13" t="n">
-        <v>674.2349604684848</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.2349604684848</v>
+        <v>126.7013091079736</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5355,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>786.0822064765186</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>786.0822064765186</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>786.0822064765186</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>973.645920224716</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>718.9614320188291</v>
       </c>
       <c r="W16" t="n">
-        <v>786.0822064765186</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="X16" t="n">
-        <v>786.0822064765186</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="Y16" t="n">
-        <v>786.0822064765186</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,19 +5506,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4184.545848715275</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="C19" t="n">
-        <v>4015.609665787368</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D19" t="n">
-        <v>3865.493026375033</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E19" t="n">
-        <v>3717.579932792639</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F19" t="n">
-        <v>3570.689985294729</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4549.859459491671</v>
+        <v>1477.287961547143</v>
       </c>
       <c r="T19" t="n">
-        <v>4326.074044281177</v>
+        <v>1253.502546336649</v>
       </c>
       <c r="U19" t="n">
-        <v>4326.074044281177</v>
+        <v>964.3739075502072</v>
       </c>
       <c r="V19" t="n">
-        <v>4326.074044281177</v>
+        <v>964.3739075502072</v>
       </c>
       <c r="W19" t="n">
-        <v>4326.074044281177</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="X19" t="n">
-        <v>4326.074044281177</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="Y19" t="n">
-        <v>4326.074044281177</v>
+        <v>674.9567375132466</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5731,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,13 +5785,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>3033.644633014775</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>3340.964766294737</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>3973.880983602625</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>364.7173639423012</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>364.7173639423012</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>364.7173639423012</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.2811958984814</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705745</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705745</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>1078.38887190473</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347408</v>
+        <v>823.7043836988429</v>
       </c>
       <c r="W25" t="n">
-        <v>1145.063325940029</v>
+        <v>823.7043836988429</v>
       </c>
       <c r="X25" t="n">
-        <v>917.0737750420116</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="Y25" t="n">
-        <v>696.2811958984814</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,10 +6214,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K27" t="n">
-        <v>410.8745301331628</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L27" t="n">
-        <v>1024.771599890051</v>
+        <v>3128.721707800139</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>3436.041841080101</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>841.7907383782456</v>
+        <v>213.5974452556121</v>
       </c>
       <c r="C28" t="n">
-        <v>672.8545554503387</v>
+        <v>213.5974452556121</v>
       </c>
       <c r="D28" t="n">
-        <v>522.7379160380029</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>374.8248224556098</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>374.8248224556098</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>206.6495007754304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W28" t="n">
-        <v>1244.231782352015</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="X28" t="n">
-        <v>1244.231782352015</v>
+        <v>616.038489229382</v>
       </c>
       <c r="Y28" t="n">
-        <v>1023.439203208485</v>
+        <v>395.2459100858518</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6442,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,34 +6475,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>1026.505047571597</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1333.825180851558</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1663.687808515591</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>1943.227873734288</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1313.886294955175</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="32">
@@ -6680,43 +6682,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>4223.429265789278</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>4054.493082861371</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>3904.376443449036</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>4733.35048371925</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>4444.221844932808</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>4444.221844932808</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>4444.221844932808</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>4444.221844932808</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>4223.429265789278</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>674.9958217162123</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>681.3817128053294</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>681.3817128053294</v>
       </c>
     </row>
     <row r="38">
@@ -7169,49 +7171,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>3925.399532794549</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T40" t="n">
-        <v>1090.100879744681</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>4082.388754106442</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>4082.388754106442</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>4082.388754106442</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7397,64 +7399,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>4058.523348980396</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.587166052489</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.587166052489</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>3741.674072470096</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>4058.523348980396</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>4058.523348980396</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>4058.523348980396</v>
       </c>
     </row>
     <row r="44">
@@ -7637,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1236.836466556557</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>2041.248044820708</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>447.0175521403269</v>
+        <v>825.112461128548</v>
       </c>
       <c r="C46" t="n">
-        <v>447.0175521403269</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D46" t="n">
-        <v>447.0175521403269</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E46" t="n">
-        <v>299.1044585579338</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F46" t="n">
-        <v>299.1044585579338</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1335.03367905852</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1335.03367905852</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>1045.905040272078</v>
       </c>
       <c r="V46" t="n">
-        <v>675.0071030383442</v>
+        <v>1045.905040272078</v>
       </c>
       <c r="W46" t="n">
-        <v>675.0071030383442</v>
+        <v>1045.905040272078</v>
       </c>
       <c r="X46" t="n">
-        <v>447.0175521403269</v>
+        <v>1045.905040272078</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.0175521403269</v>
+        <v>825.112461128548</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8307,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516222</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,7 +9418,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9483,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>306.1147370139952</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,28 +9719,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>124.3400780863228</v>
+        <v>403.7628319612152</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>124.3400780863228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814523</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>182.0340742867947</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10425,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720745</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>398.9629823660891</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>159.0121003135244</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>117.2445871753583</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>234.1731524595102</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>35.70518909861568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>74.10486795611897</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.71906657169521</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>176.5087840629516</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24130,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>29.21125128394844</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>201.4271411941183</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>157.7561442232854</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>33.39892276083933</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>40.575743145543</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,7 +24657,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>14.74113413690324</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>145.6635866904714</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>205.2828650600907</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>173.5099480037114</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>24.41265108316341</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25600,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>14.74113413690327</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>125.0606300868534</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26023,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>115.5389034042423</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>145.6413968030076</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154503999</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278766</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="H2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="I2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="J2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="K2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="K2" t="n">
-        <v>703852.3075278765</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.3075278762</v>
-      </c>
       <c r="M2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.307527876</v>
       </c>
       <c r="N2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,22 +26426,22 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687074</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26473,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99522.23218662344</v>
+        <v>-99522.2321866233</v>
       </c>
       <c r="C6" t="n">
-        <v>490445.6470279209</v>
+        <v>490445.647027921</v>
       </c>
       <c r="D6" t="n">
-        <v>490445.6470279206</v>
+        <v>490445.6470279212</v>
       </c>
       <c r="E6" t="n">
-        <v>64530.33751539257</v>
+        <v>64530.33751539222</v>
       </c>
       <c r="F6" t="n">
-        <v>589690.3739922888</v>
+        <v>589690.3739922886</v>
       </c>
       <c r="G6" t="n">
-        <v>589690.3739922893</v>
+        <v>589690.3739922883</v>
       </c>
       <c r="H6" t="n">
         <v>589690.3739922887</v>
       </c>
       <c r="I6" t="n">
+        <v>589690.3739922884</v>
+      </c>
+      <c r="J6" t="n">
+        <v>413267.1547996956</v>
+      </c>
+      <c r="K6" t="n">
         <v>589690.3739922887</v>
       </c>
-      <c r="J6" t="n">
-        <v>413267.1547996958</v>
-      </c>
-      <c r="K6" t="n">
-        <v>589690.3739922892</v>
-      </c>
       <c r="L6" t="n">
-        <v>589690.373992289</v>
+        <v>589690.3739922887</v>
       </c>
       <c r="M6" t="n">
         <v>454889.3587584516</v>
@@ -26558,10 +26560,10 @@
         <v>589690.3739922885</v>
       </c>
       <c r="O6" t="n">
-        <v>589690.3739922885</v>
+        <v>589690.3739922886</v>
       </c>
       <c r="P6" t="n">
-        <v>589690.3739922884</v>
+        <v>589690.3739922888</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26738,19 +26740,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>110.0734491281034</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>90.29679129775059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.18263959690364</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27582,19 +27584,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>89.93819453836464</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>271.7903073462763</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>58.44186903370917</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>91.6477683531985</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>96.68503059263361</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>19.58227584217826</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>50.28729207519342</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>108.6997829122611</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>211.9692510389838</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28564,22 +28566,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,19 +28614,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.235355172139992e-14</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,13 +34780,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,7 +35734,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>724.9245949685507</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,7 +35743,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36138,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
@@ -36203,13 +36205,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>639.3093104120081</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
@@ -36218,7 +36220,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>434.7644551367891</v>
+        <v>714.1872090116815</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36674,10 +36676,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>274.915516674262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341696</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36686,13 +36688,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36923,13 +36925,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>389.1274892183194</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>670.927063341192</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081896</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>670.927063341192</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>709.3873594165555</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>366.105515245049</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3629840.806963151</v>
+        <v>3622823.79207144</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>271.8569209441584</v>
+        <v>304.0710731174375</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,10 +709,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33.20988753395294</v>
       </c>
       <c r="G4" t="n">
-        <v>156.1271626621473</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>93.48258442473121</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>67.34019441677026</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>174.5477110993518</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>1.332975795529715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>277.4649663949415</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>13.74040435005339</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>28.51033041214364</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.132701067095</v>
       </c>
       <c r="E13" t="n">
-        <v>29.18937547121088</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>212.1324844424584</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>21.41202592065167</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>119.4042217342639</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>114.9309043193593</v>
       </c>
       <c r="U25" t="n">
-        <v>84.81021120445899</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>115.216550257373</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>80.04606869856572</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>16.26469599829858</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.32203217822591</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.4193290987739</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>20.36041793607786</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>52.2794131805957</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.883734065348</v>
+        <v>1670.695888779115</v>
       </c>
       <c r="C2" t="n">
-        <v>906.9212171249362</v>
+        <v>1670.695888779115</v>
       </c>
       <c r="D2" t="n">
-        <v>906.9212171249362</v>
+        <v>1670.695888779115</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,13 +4409,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6471865296041</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6471865296041</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6471865296041</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6471865296041</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6471865296041</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6471865296041</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6471865296041</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>211.6471865296041</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6471865296041</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6471865296041</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.58524627281</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2397.922515462108</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2144.1607301002</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1722.185086336931</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551155</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="W7" t="n">
-        <v>184.2708856551155</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.8181649141599</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1282.700798147047</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C8" t="n">
-        <v>913.7382812066351</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304456</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.069293481283</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.300638211168</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="X8" t="n">
-        <v>1669.300638211168</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1669.300638211168</v>
+        <v>2305.663318844906</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,10 +4886,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.5125998356232</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>261.3917961488085</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>261.3917961488085</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>261.3917961488085</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>247.5125998356232</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>247.5125998356232</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,13 +5053,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5074,16 +5074,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.7013091079736</v>
+        <v>785.4801130615101</v>
       </c>
       <c r="C13" t="n">
-        <v>126.7013091079736</v>
+        <v>785.4801130615101</v>
       </c>
       <c r="D13" t="n">
-        <v>126.7013091079736</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5232,19 +5232,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488384</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>644.1080300429516</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>354.6908600059909</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X13" t="n">
-        <v>126.7013091079736</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.7013091079736</v>
+        <v>967.1285778917498</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,34 +5263,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>973.645920224716</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>718.9614320188291</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>429.5442619818684</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>429.5442619818684</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.9567375132466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>674.9567375132466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1477.287961547143</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1253.502546336649</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>964.3739075502072</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>964.3739075502072</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>674.9567375132466</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>674.9567375132466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.9567375132466</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2786.879505108311</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>3033.644633014775</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>3340.964766294737</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>3973.880983602625</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>4253.421048821322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>364.7173639423012</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>364.7173639423012</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>874.927113122792</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>874.927113122792</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>585.5099430858313</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>585.5099430858313</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>364.7173639423012</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U25" t="n">
-        <v>1078.38887190473</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>823.7043836988429</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>823.7043836988429</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>595.7148328008255</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>595.7148328008255</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,13 +6238,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.5974452556121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>213.5974452556121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>844.0280401273993</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>844.0280401273993</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>616.038489229382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>395.2459100858518</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,13 +6475,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6490,25 +6490,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4223.429265789278</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4054.493082861371</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3904.376443449036</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4733.35048371925</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4444.221844932808</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4444.221844932808</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>4444.221844932808</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X34" t="n">
-        <v>4444.221844932808</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y34" t="n">
-        <v>4223.429265789278</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6931,13 +6931,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6964,7 +6964,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2338.69837048303</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>674.9958217162123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>909.3712637033467</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>909.3712637033467</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>681.3817128053294</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>681.3817128053294</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7174,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3925.399532794549</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4660.934562929845</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4371.805924143403</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4371.805924143403</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4082.388754106442</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4082.388754106442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4082.388754106442</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,34 +7429,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4058.523348980396</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3889.587166052489</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3889.587166052489</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3741.674072470096</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4347.940519017357</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>4058.523348980396</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>4058.523348980396</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>4058.523348980396</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1966.019627967826</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>825.112461128548</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>656.1762782006411</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1335.03367905852</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1335.03367905852</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1045.905040272078</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1045.905040272078</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1045.905040272078</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1045.905040272078</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>825.112461128548</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516222</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>414.5002179180844</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,16 +9488,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N21" t="n">
-        <v>306.1147370139952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>403.7628319612152</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814523</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>230.7151863772038</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K35" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.7396287231155</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>159.0121003135244</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>38.48277195111731</v>
       </c>
       <c r="E13" t="n">
-        <v>117.2445871753583</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>74.10486795611897</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>176.5087840629516</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>29.21125128394844</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24417,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>106.6166567390299</v>
       </c>
       <c r="U25" t="n">
-        <v>201.4271411941183</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>33.39892276083933</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>145.6635866904714</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>205.2828650600907</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>48.8408432116525</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.5099480037114</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.41265108316341</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>125.0606300868534</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>145.6413968030076</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154504003</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>686136.2154503999</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="G2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="H2" t="n">
         <v>703852.3075278756</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="G2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="I2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="L2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="M2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="P2" t="n">
         <v>703852.307527876</v>
-      </c>
-      <c r="M2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703852.3075278758</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="P2" t="n">
-        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="3">
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687074</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26453,7 +26453,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99522.2321866233</v>
+        <v>-99522.23218662359</v>
       </c>
       <c r="C6" t="n">
-        <v>490445.647027921</v>
+        <v>490445.6470279211</v>
       </c>
       <c r="D6" t="n">
-        <v>490445.6470279212</v>
+        <v>490445.6470279211</v>
       </c>
       <c r="E6" t="n">
-        <v>64530.33751539222</v>
+        <v>63555.74625567109</v>
       </c>
       <c r="F6" t="n">
-        <v>589690.3739922886</v>
+        <v>588715.7827325672</v>
       </c>
       <c r="G6" t="n">
-        <v>589690.3739922883</v>
+        <v>588715.7827325671</v>
       </c>
       <c r="H6" t="n">
-        <v>589690.3739922887</v>
+        <v>588715.7827325667</v>
       </c>
       <c r="I6" t="n">
-        <v>589690.3739922884</v>
+        <v>588715.7827325669</v>
       </c>
       <c r="J6" t="n">
-        <v>413267.1547996956</v>
+        <v>412292.5635399741</v>
       </c>
       <c r="K6" t="n">
-        <v>589690.3739922887</v>
+        <v>588715.7827325672</v>
       </c>
       <c r="L6" t="n">
-        <v>589690.3739922887</v>
+        <v>588715.7827325672</v>
       </c>
       <c r="M6" t="n">
-        <v>454889.3587584516</v>
+        <v>453914.7674987298</v>
       </c>
       <c r="N6" t="n">
-        <v>589690.3739922885</v>
+        <v>588715.7827325669</v>
       </c>
       <c r="O6" t="n">
-        <v>589690.3739922886</v>
+        <v>588715.7827325671</v>
       </c>
       <c r="P6" t="n">
-        <v>589690.3739922888</v>
+        <v>588715.7827325672</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26743,16 +26743,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26761,10 +26761,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>110.0734491281034</v>
+        <v>77.85929695482423</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>112.2111604889783</v>
       </c>
       <c r="G4" t="n">
-        <v>11.18263959690364</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>271.7903073462763</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>149.1081259408875</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>111.7341631426259</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>96.68503059263361</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>173.0827370134418</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>50.28729207519342</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>211.9692510389838</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>190.0743229399511</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28566,22 +28566,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,19 +28614,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.235355172139992e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>8.769894134013742e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35497,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>724.9245949685507</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N21" t="n">
-        <v>639.3093104120081</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507413</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36445,7 +36445,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>714.1872090116815</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341696</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,19 +36919,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8086013087286</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>670.927063341192</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>287.7526615081896</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>670.927063341192</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38110,10 +38110,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>366.105515245049</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3622823.79207144</v>
+        <v>3627763.054920471</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>304.0710731174375</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>118.780297634089</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>33.20988753395294</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>264.6760440799072</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>67.34019441677026</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>19.79590955981801</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>174.5477110993518</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>164.6242057717098</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.332975795529715</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.51033041214364</v>
+        <v>126.5499088748946</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.132701067095</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>150.8003755784925</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>151.4771940276668</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>235.5975646709548</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>114.9309043193593</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>62.63869417193528</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,7 +3246,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>169.7438101404423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527412</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>127.9032618964203</v>
       </c>
     </row>
     <row r="44">
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1670.695888779115</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="C2" t="n">
-        <v>1670.695888779115</v>
+        <v>1688.333211902825</v>
       </c>
       <c r="D2" t="n">
-        <v>1670.695888779115</v>
+        <v>1330.067513296074</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1330.067513296074</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>919.0816085064666</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>501.1178004046535</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>173.9230804406563</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
         <v>266.2060027641987</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942404</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942404</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942404</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>474.7584972999286</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4564,16 +4564,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2397.922515462108</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2144.1607301002</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1813.097842756629</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1813.097842756629</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.097842756629</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>551.8181649141599</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C7" t="n">
-        <v>551.8181649141599</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D7" t="n">
-        <v>551.8181649141599</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="E7" t="n">
-        <v>551.8181649141599</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>551.8181649141599</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>551.8181649141599</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>551.8181649141599</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>551.8181649141599</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.8181649141599</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>1744.232431292459</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1375.269914352047</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1017.004215745297</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>631.2159631470527</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>220.2300583574451</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4810,46 +4810,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2695.802650820718</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2695.802650820718</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2695.802650820718</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2695.802650820718</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2695.802650820718</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>2695.802650820718</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y8" t="n">
-        <v>2305.663318844906</v>
+        <v>2130.832271356581</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,16 +4892,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.6822058285749</v>
+        <v>418.6523285934728</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.3306706588146</v>
+        <v>600.3007934237124</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,13 +5053,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5129,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.4801130615101</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>785.4801130615101</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1235.517555424281</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1235.517555424281</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>946.3889166378392</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>946.3889166378392</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>656.9717466008786</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.92115703528</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y13" t="n">
-        <v>967.1285778917498</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5366,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5472,16 +5472,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,28 +5582,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,10 +5700,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
         <v>869.3083006011506</v>
@@ -5715,10 +5715,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5728,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="23">
@@ -5986,16 +5986,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6056,28 +6056,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,13 +6238,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>310.6051391271017</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>310.6051391271017</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>160.4884997147659</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>160.4884997147659</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>160.4884997147659</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>160.4884997147659</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>310.6051391271017</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,19 +6475,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6964,25 +6964,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7122,19 +7122,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,25 +7174,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7359,7 +7359,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
         <v>1158.436939387592</v>
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>145.2351313103794</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>38.48277195111731</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>47.12043440511076</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>100.6604492961612</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>16.54007865287323</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>106.6166567390299</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>86.27513419560084</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>82.39383318338568</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.8408432116525</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>90.68139145567446</v>
       </c>
     </row>
     <row r="44">
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>686136.2154504003</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="12">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778548</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778549</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
         <v>703852.3075278761</v>
@@ -26328,10 +26328,10 @@
         <v>703852.3075278761</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="I2" t="n">
         <v>703852.3075278759</v>
@@ -26340,22 +26340,22 @@
         <v>703852.307527876</v>
       </c>
       <c r="K2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="L2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="M2" t="n">
         <v>703852.3075278761</v>
       </c>
-      <c r="L2" t="n">
-        <v>703852.3075278761</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="O2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="P2" t="n">
         <v>703852.3075278759</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.3075278761</v>
-      </c>
-      <c r="P2" t="n">
-        <v>703852.307527876</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,31 +26432,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687076</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.60758687077</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="L4" t="n">
         <v>22174.60758687072</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26472,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99522.23218662359</v>
+        <v>-99522.23218662367</v>
       </c>
       <c r="C6" t="n">
-        <v>490445.6470279211</v>
+        <v>490445.647027921</v>
       </c>
       <c r="D6" t="n">
-        <v>490445.6470279211</v>
+        <v>490445.6470279208</v>
       </c>
       <c r="E6" t="n">
-        <v>63555.74625567109</v>
+        <v>64432.87838942044</v>
       </c>
       <c r="F6" t="n">
-        <v>588715.7827325672</v>
+        <v>589592.9148663167</v>
       </c>
       <c r="G6" t="n">
-        <v>588715.7827325671</v>
+        <v>589592.9148663166</v>
       </c>
       <c r="H6" t="n">
-        <v>588715.7827325667</v>
+        <v>589592.9148663166</v>
       </c>
       <c r="I6" t="n">
-        <v>588715.7827325669</v>
+        <v>589592.9148663165</v>
       </c>
       <c r="J6" t="n">
-        <v>412292.5635399741</v>
+        <v>413169.6956737235</v>
       </c>
       <c r="K6" t="n">
-        <v>588715.7827325672</v>
+        <v>589592.9148663164</v>
       </c>
       <c r="L6" t="n">
-        <v>588715.7827325672</v>
+        <v>589592.9148663165</v>
       </c>
       <c r="M6" t="n">
-        <v>453914.7674987298</v>
+        <v>454791.8996324796</v>
       </c>
       <c r="N6" t="n">
-        <v>588715.7827325669</v>
+        <v>589592.9148663164</v>
       </c>
       <c r="O6" t="n">
-        <v>588715.7827325671</v>
+        <v>589592.9148663164</v>
       </c>
       <c r="P6" t="n">
-        <v>588715.7827325672</v>
+        <v>589592.9148663165</v>
       </c>
     </row>
   </sheetData>
@@ -26743,22 +26743,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77.85929695482423</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>33.15101861077228</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>112.2111604889783</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>149.1081259408878</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>149.1081259408875</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>125.6251384631132</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>111.7341631426259</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>249.1599642490852</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>173.0827370134418</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.0743229399511</v>
+        <v>92.03474447720023</v>
       </c>
     </row>
     <row r="11">
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>8.769894134013742e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,19 +36208,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>455.6595083608457</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36852,7 +36852,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349808</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
